--- a/guide/sdr-deathRecord-DeathRecordContents.xlsx
+++ b/guide/sdr-deathRecord-DeathRecordContents.xlsx
@@ -9625,10 +9625,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>39</v>
@@ -9729,10 +9729,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>39</v>
@@ -9833,10 +9833,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>39</v>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>41</v>
@@ -10145,10 +10145,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>39</v>
@@ -10249,10 +10249,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>39</v>
@@ -10353,10 +10353,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>39</v>
@@ -10460,7 +10460,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>39</v>
@@ -10561,10 +10561,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>39</v>
@@ -10665,10 +10665,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>39</v>
@@ -10769,10 +10769,10 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>39</v>
@@ -10873,10 +10873,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>39</v>
